--- a/4_Spreadsheets_Advanced/3_Collaboration.xlsx
+++ b/4_Spreadsheets_Advanced/3_Collaboration.xlsx
@@ -8,20 +8,86 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\4_Spreadsheets_Advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C503E-596C-46E1-8E91-A760F06CDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185CEE2-1E9F-4521-917E-B8A24B452FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Validation" sheetId="2" r:id="rId2"/>
+    <sheet name="Protecting Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +403,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247AA83-FC71-4C2C-B03D-EC7056EA49C6}">
+  <dimension ref="B2:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="That is not a whole number or it's not between 1 - 100" prompt="Input a number between 1-100" sqref="C3:N5" xr:uid="{0AABDC58-B17A-4FD7-9B56-53A5837AADA2}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D05D489-C9E4-42A3-B52C-ACD89DF3241C}">
+  <dimension ref="B2:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="That is not a whole number or it's not between 1 - 100" prompt="Input a number between 1-100" sqref="C3:N5" xr:uid="{AE75B6CE-6BA0-4BED-BF91-AEF1491ADB2C}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_Spreadsheets_Advanced/3_Collaboration.xlsx
+++ b/4_Spreadsheets_Advanced/3_Collaboration.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\4_Spreadsheets_Advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185CEE2-1E9F-4521-917E-B8A24B452FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8423B0BC-0AA1-4CD0-9DB8-B9BE87D810AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Validation" sheetId="2" r:id="rId2"/>
-    <sheet name="Protecting Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Validation" sheetId="4" r:id="rId2"/>
+    <sheet name="Protecting Sheet" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +37,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0E7E8BA3-D73D-4DCA-A378-8F7E147F58A8}</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0E7E8BA3-D73D-4DCA-A378-8F7E147F58A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is a comment</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
@@ -92,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +118,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,12 +155,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +225,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kelly J. Adams" id="{13C59D1D-B716-42A1-BDDD-0814CA0EBFB9}" userId="8bf731bb1c2832a6" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,12 +494,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G4" dT="2024-08-04T06:11:30.87" personId="{13C59D1D-B716-42A1-BDDD-0814CA0EBFB9}" id="{0E7E8BA3-D73D-4DCA-A378-8F7E147F58A8}">
+    <text>This is a comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,188 +516,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>51</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>74</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>93</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>85</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>73</v>
       </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>62</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>80</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>78</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>96</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>72</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>51</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>61</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>71</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>54</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>67</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>SUM(C3:C5)</f>
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
         <v>97</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -607,11 +718,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247AA83-FC71-4C2C-B03D-EC7056EA49C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9E7B8B-3BC3-40A9-9595-F34316751742}">
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,198 +731,223 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>51</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>74</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>93</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>85</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>73</v>
       </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>62</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>80</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>78</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>96</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>72</v>
-      </c>
-      <c r="F5">
-        <v>51</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>61</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>71</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>54</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>67</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="L5" s="6">
+        <v>55</v>
+      </c>
+      <c r="M5" s="6">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>SUM(C3:C5)</f>
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
         <v>97</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="That is not a whole number or it's not between 1 - 100" prompt="Input a number between 1-100" sqref="C3:N5" xr:uid="{0AABDC58-B17A-4FD7-9B56-53A5837AADA2}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="That is not a whole number or it’s not between 1 - 100" prompt="Input a number between 1 - 100" sqref="L3:N5" xr:uid="{E0AE76A0-B64B-4BC8-AE82-AFFA136BBABE}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -821,11 +957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D05D489-C9E4-42A3-B52C-ACD89DF3241C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52551F46-C0C5-4192-94BD-2C51B430B301}">
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,202 +970,231 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>51</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>74</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>93</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>85</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>73</v>
       </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>62</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>80</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>78</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>96</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>72</v>
-      </c>
-      <c r="F5">
-        <v>51</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>61</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>71</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>54</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>67</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="L5" s="6">
+        <v>55</v>
+      </c>
+      <c r="M5" s="6">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>SUM(C3:C5)</f>
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:N6" si="0">SUM(D3:D5)</f>
         <v>97</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="L3:N5" name="Q1"/>
+  </protectedRanges>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="That is not a whole number or it's not between 1 - 100" prompt="Input a number between 1-100" sqref="C3:N5" xr:uid="{AE75B6CE-6BA0-4BED-BF91-AEF1491ADB2C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="That is not a whole number or it’s not between 1 - 100" prompt="Input a number between 1 - 100" sqref="L3:N5" xr:uid="{96E2B43D-C22E-4118-B184-01E88CE4986C}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>